--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7192,26 +7192,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,26 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -8852,7 +8852,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7192,26 +7192,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,26 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7192,26 +7192,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,26 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,16 +6194,16 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7192,26 +7192,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,26 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8939,7 +8939,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7240,26 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,26 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,16 +6242,16 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -7240,26 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,26 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -7447,7 +7447,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Parque Eólico Quillagua SpA</t>
+          <t>Parque Fotovoltaico Nuevo Quillagua SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Parque Eólico Quillagua SpA</t>
+          <t>Parque Fotovoltaico Nuevo Quillagua SpA</t>
         </is>
       </c>
       <c r="F293" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7288,26 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,26 +7336,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7288,26 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,26 +7336,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>26/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Salar de Huasco SpA</t>
         </is>
       </c>
       <c r="F23" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CEME1 SpA</t>
+          <t>CEME 1 SpA</t>
         </is>
       </c>
       <c r="F73" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,16 +6290,16 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6308,12 +6308,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7288,26 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,26 +7336,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,26 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,26 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación en SE Ana María y Seccionamiento Línea 2x220 kV Frontera-María Elena</t>
+          <t>Ampliación en SE Frontera y Seccionamiento Línea 2x220 kV Encuentro-Lagunas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TSFG SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157947195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157928736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación en SE Frontera y Seccionamiento Línea 2x220 kV Encuentro-Lagunas</t>
+          <t>Ampliación en SE Ana María y Seccionamiento Línea 2x220 kV Frontera-María Elena</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TSFG SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157928736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157947195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,26 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,26 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,26 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -13783,7 +13783,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F280" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7384,26 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -20407,7 +20407,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F447" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -19063,7 +19063,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F390" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Acciona Energía Chile SpA</t>
+          <t>Solar PDV SpA</t>
         </is>
       </c>
       <c r="F16" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7432,26 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,16 +9986,16 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación en SE Ana María y Seccionamiento Línea 2x220 kV Frontera-María Elena</t>
+          <t>Ampliación en SE Frontera y Seccionamiento Línea 2x220 kV Encuentro-Lagunas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TSGF SpA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158438113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158429244&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación en SE Frontera y Seccionamiento Línea 2x220 kV Encuentro-Lagunas</t>
+          <t>Ampliación en SE Ana María y Seccionamiento Línea 2x220 kV Frontera-María Elena</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TSGF SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158429244&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158438113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7480,26 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,26 +7576,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,26 +7576,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/03/2023</t>
+          <t>09/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,26 +7576,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7528,26 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,26 +7576,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROSPECCIONES PAMPA PACIENCIA</t>
+          <t>Ampliación en Subestación Frontera y Seccionamiento Línea 2x220 Encuentro-Laguna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASTRA EXPLORATION CHILE SPA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>19000</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158864741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158862523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación en Subestación Frontera y Seccionamiento Línea 2x220 Encuentro-Laguna</t>
+          <t>PROSPECCIONES PAMPA PACIENCIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ASTRA EXPLORATION CHILE SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>19000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158862523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158864741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>12980</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7624,26 +7624,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,26 +7720,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>358000</v>
+        <v>449000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>449000</v>
+        <v>3.072</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3.072</v>
+        <v>358000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -22087,7 +22087,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F453" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,26 +7720,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Crucero Oeste</t>
+          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9419,7 +9419,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>449000</v>
+        <v>358000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Actualización Proyecto Sierra Gorda</t>
+          <t>Proyecto Fotovoltaico Crucero Oeste</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SIERRA GORDA S.C.M.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3.072</v>
+        <v>449000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6759999&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO CRUCERO ESTE</t>
+          <t>Actualización Proyecto Sierra Gorda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SIERRA GORDA S.C.M.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>358000</v>
+        <v>3.072</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6758429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6763708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,26 +7720,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Rica Aventura</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>86000</v>
+        <v>219</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Subestación Eléctrica Rica Aventura</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>219</v>
+        <v>86000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958554&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7672,26 +7672,26 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,26 +7720,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Planta Termosolar Pedro de Valdivia</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ibereólica Solar Atacama S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2.61</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta Termosolar Pedro de Valdivia</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Solar Atacama S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>2.61</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6738571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Minera Antucoya</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>200000</v>
+        <v>200</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Producción de Ácido Sulfúrico Antucoya</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Minera Antucoya</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6496503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
+          <t>Estanques de Combustible Coya Sur (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>empresa de transportes karl y cia.ltda</t>
+          <t>SQM S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1100</v>
+        <v>748</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Estanques de Combustible Coya Sur (e-seia)</t>
+          <t>Transporte Terrestre de acido sulfurico entre las regiones I,II y III (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>SQM S.A.</t>
+          <t>empresa de transportes karl y cia.ltda</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2911980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898615&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>12026</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>Ana María S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/data/María Elena.xlsx
+++ b/data/María Elena.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
